--- a/src/main/resources/xlsx/cpc/cpc_stat_template.xlsx
+++ b/src/main/resources/xlsx/cpc/cpc_stat_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1ED3356-B338-4693-8A2F-21481A3BBE83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6DB3C-869F-4E89-B8B2-0BF906A686D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>统计日期：2017年05月27日</t>
-  </si>
-  <si>
-    <t>学部、院、系所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
@@ -98,11 +90,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机关职能部处、直属单位、教辅单位、机关党总支、经营性单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school内设机构干部配备统计表</t>
+    <t>school内设机构处级干部配备统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.125" style="7" customWidth="1" collapsed="1"/>
@@ -778,9 +766,9 @@
     <col min="23" max="16384" width="8.875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="56.25" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -800,7 +788,7 @@
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
     </row>
-    <row r="2" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="33.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -822,125 +810,123 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
       <c r="G3" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="27"/>
       <c r="N3" s="28"/>
       <c r="O3" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="21"/>
       <c r="H5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="21"/>
       <c r="L5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="21"/>
       <c r="P5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="48" customHeight="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -958,17 +944,15 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:18" ht="48" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
@@ -982,73 +966,27 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+    <row r="8" spans="1:18" ht="28.5" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1060,8 +998,8 @@
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:R8"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:I4"/>

--- a/src/main/resources/xlsx/cpc/cpc_stat_template.xlsx
+++ b/src/main/resources/xlsx/cpc/cpc_stat_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6DB3C-869F-4E89-B8B2-0BF906A686D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE818345-7663-4AB8-8EAC-BF9A561E2E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无行政级别岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>school内设机构处级干部配备统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聘任制（无级别）岗位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,6 +409,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,43 +451,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,7 +746,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
@@ -767,160 +767,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>10</v>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="22" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="26" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="22"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="21"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="21"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="16"/>
       <c r="P5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" ht="48" customHeight="1">
       <c r="A6" s="2">
@@ -945,10 +945,10 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="48" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -967,35 +967,29 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="A8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A7:B7"/>
@@ -1012,6 +1006,12 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
